--- a/tema.xlsx
+++ b/tema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\datawarga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vizta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59429370-BBFF-484E-9E19-746B9E58FDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5154A3-7696-4348-977D-76A6A82A9047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1725" windowWidth="21600" windowHeight="11295" xr2:uid="{E2165363-1CB0-401C-B82E-9B8D0D7B03C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2165363-1CB0-401C-B82E-9B8D0D7B03C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>NAMA</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>1808020205056001</t>
+  </si>
+  <si>
+    <t>MARDIYANTO</t>
+  </si>
+  <si>
+    <t>KORDINATOR</t>
+  </si>
+  <si>
+    <t>WA KORDINATOR</t>
   </si>
 </sst>
 </file>
@@ -175,12 +184,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8084EBB4-0482-482C-9ED6-CBDE27204122}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,14 +518,16 @@
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -540,8 +552,14 @@
       <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
@@ -563,8 +581,14 @@
       <c r="H3" t="s">
         <v>3</v>
       </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3">
+        <v>89786756</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -586,8 +610,14 @@
       <c r="H4" t="s">
         <v>3</v>
       </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>89786756</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
@@ -609,8 +639,14 @@
       <c r="H5" t="s">
         <v>3</v>
       </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5">
+        <v>89786756</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -632,8 +668,14 @@
       <c r="H6" t="s">
         <v>3</v>
       </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6">
+        <v>89786756</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -654,6 +696,12 @@
       </c>
       <c r="H7" t="s">
         <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>89786756</v>
       </c>
     </row>
   </sheetData>
